--- a/public/file/ornek-surucu-sablonu.xlsx
+++ b/public/file/ornek-surucu-sablonu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berke Mert\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1F702A-4428-4BE4-BCA2-C0D770564716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C34598-B22E-4299-97AE-3E2EBA5314B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>ISIM</t>
   </si>
@@ -262,12 +262,6 @@
   </si>
   <si>
     <t>SURUCU_OZEL_ALAN_8</t>
-  </si>
-  <si>
-    <t>ALİ KOZ</t>
-  </si>
-  <si>
-    <t>YÖNETİM</t>
   </si>
 </sst>
 </file>
@@ -303,9 +297,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -641,7 +634,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{769FBC7D-E95C-4B47-8487-55D81D1B4C3F}" name="SURUCU" displayName="SURUCU" ref="A1:BW2" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{769FBC7D-E95C-4B47-8487-55D81D1B4C3F}" name="SURUCU" displayName="SURUCU" ref="A1:BW2" tableType="queryTable" insertRow="1" totalsRowShown="0">
   <autoFilter ref="A1:BW2" xr:uid="{769FBC7D-E95C-4B47-8487-55D81D1B4C3F}"/>
   <tableColumns count="75">
     <tableColumn id="3" xr3:uid="{4E45D467-E434-44B4-95A1-145790E0DA94}" uniqueName="3" name="ISIM" queryTableFieldId="3" dataDxfId="71"/>
@@ -990,7 +983,7 @@
   <dimension ref="A1:BW2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1287,82 +1280,16 @@
       </c>
     </row>
     <row r="2" spans="1:75" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="1"/>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1"/>
-      <c r="AZ2" s="1"/>
-      <c r="BA2" s="1"/>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="1"/>
-      <c r="BD2" s="1"/>
-      <c r="BE2" s="1"/>
-      <c r="BF2" s="1"/>
-      <c r="BG2" s="1"/>
-      <c r="BH2" s="1"/>
-      <c r="BI2" s="1"/>
-      <c r="BJ2" s="2"/>
-      <c r="BL2" s="1"/>
-      <c r="BM2" s="2"/>
-      <c r="BN2" s="2"/>
-      <c r="BO2" s="1"/>
-      <c r="BP2" s="1"/>
-      <c r="BQ2" s="1"/>
-      <c r="BR2" s="1"/>
-      <c r="BS2" s="1"/>
-      <c r="BT2" s="1"/>
-      <c r="BU2" s="1"/>
-      <c r="BV2" s="1"/>
-      <c r="BW2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BJ2" s="1"/>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
